--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackdm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackdm\Documents\GitHub\CCSNL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{636E7464-E3A7-45CA-98EF-697B096F1B2F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFC2C85-18B6-4B99-ABC3-37612822CA94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11140" xr2:uid="{14EF1E80-03CA-9442-84F5-1A7F1A8DD98B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16180" windowHeight="7250" xr2:uid="{14EF1E80-03CA-9442-84F5-1A7F1A8DD98B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
